--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\/mmm\/yyyy"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -263,7 +267,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -280,6 +284,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,8 +927,8 @@
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5">
-        <v>45268</v>
+      <c r="I2" s="9">
+        <v>45270</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
@@ -929,7 +939,7 @@
       <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="9">
         <v>45270</v>
       </c>
     </row>
@@ -943,7 +953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -968,11 +980,12 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>45268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>